--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spon2-Itgam.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spon2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H2">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I2">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J2">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.559365894940731</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N2">
-        <v>0.559365894940731</v>
+        <v>2.89089</v>
       </c>
       <c r="O2">
-        <v>0.0030684288305113</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P2">
-        <v>0.0030684288305113</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q2">
-        <v>0.5362101761525052</v>
+        <v>1.12371528222</v>
       </c>
       <c r="R2">
-        <v>0.5362101761525052</v>
+        <v>10.11343753998</v>
       </c>
       <c r="S2">
-        <v>0.000487494314464667</v>
+        <v>0.0008321278176325658</v>
       </c>
       <c r="T2">
-        <v>0.000487494314464667</v>
+        <v>0.0008575418372124585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H3">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I3">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J3">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.5805052460525</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N3">
-        <v>67.5805052460525</v>
+        <v>214.875363</v>
       </c>
       <c r="O3">
-        <v>0.3707161493989182</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P3">
-        <v>0.3707161493989182</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q3">
-        <v>64.78291749678577</v>
+        <v>83.52401135140732</v>
       </c>
       <c r="R3">
-        <v>64.78291749678577</v>
+        <v>751.7161021626659</v>
       </c>
       <c r="S3">
-        <v>0.05889724842733034</v>
+        <v>0.06185076805973086</v>
       </c>
       <c r="T3">
-        <v>0.05889724842733034</v>
+        <v>0.06373975265704124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H4">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I4">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J4">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>114.157299768955</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N4">
-        <v>114.157299768955</v>
+        <v>405.066185</v>
       </c>
       <c r="O4">
-        <v>0.6262154217705705</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P4">
-        <v>0.6262154217705705</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q4">
-        <v>109.4316016972962</v>
+        <v>157.4529167125189</v>
       </c>
       <c r="R4">
-        <v>109.4316016972962</v>
+        <v>1417.07625041267</v>
       </c>
       <c r="S4">
-        <v>0.09948950248012682</v>
+        <v>0.116596217953917</v>
       </c>
       <c r="T4">
-        <v>0.09948950248012682</v>
+        <v>0.1201571835931293</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.51785709451082</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H5">
-        <v>4.51785709451082</v>
+        <v>3.498382</v>
       </c>
       <c r="I5">
-        <v>0.7487673894634199</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J5">
-        <v>0.7487673894634199</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.559365894940731</v>
+        <v>0.324361</v>
       </c>
       <c r="N5">
-        <v>0.559365894940731</v>
+        <v>0.648722</v>
       </c>
       <c r="O5">
-        <v>0.0030684288305113</v>
+        <v>0.001559914055329434</v>
       </c>
       <c r="P5">
-        <v>0.0030684288305113</v>
+        <v>0.001040483725282092</v>
       </c>
       <c r="Q5">
-        <v>2.527135176885375</v>
+        <v>0.3782462279673333</v>
       </c>
       <c r="R5">
-        <v>2.527135176885375</v>
+        <v>2.269477367804</v>
       </c>
       <c r="S5">
-        <v>0.00229753944517624</v>
+        <v>0.0002800969366407404</v>
       </c>
       <c r="T5">
-        <v>0.00229753944517624</v>
+        <v>0.0001924342523306458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H6">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I6">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J6">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>67.5805052460525</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N6">
-        <v>67.5805052460525</v>
+        <v>2.89089</v>
       </c>
       <c r="O6">
-        <v>0.3707161493989182</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P6">
-        <v>0.3707161493989182</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q6">
-        <v>305.3190650765039</v>
+        <v>4.44898495305</v>
       </c>
       <c r="R6">
-        <v>305.3190650765039</v>
+        <v>40.04086457745</v>
       </c>
       <c r="S6">
-        <v>0.2775801634173592</v>
+        <v>0.003294539282537604</v>
       </c>
       <c r="T6">
-        <v>0.2775801634173592</v>
+        <v>0.003395157822212607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H7">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I7">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J7">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>114.157299768955</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N7">
-        <v>114.157299768955</v>
+        <v>214.875363</v>
       </c>
       <c r="O7">
-        <v>0.6262154217705705</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P7">
-        <v>0.6262154217705705</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q7">
-        <v>515.7463666513718</v>
+        <v>330.6861405201016</v>
       </c>
       <c r="R7">
-        <v>515.7463666513718</v>
+        <v>2976.175264680915</v>
       </c>
       <c r="S7">
-        <v>0.4688896866008846</v>
+        <v>0.244877987143415</v>
       </c>
       <c r="T7">
-        <v>0.4688896866008846</v>
+        <v>0.2523568068969153</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.557265048993744</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H8">
-        <v>0.557265048993744</v>
+        <v>13.850705</v>
       </c>
       <c r="I8">
-        <v>0.09235836531465817</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J8">
-        <v>0.09235836531465817</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.559365894940731</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N8">
-        <v>0.559365894940731</v>
+        <v>405.066185</v>
       </c>
       <c r="O8">
-        <v>0.0030684288305113</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P8">
-        <v>0.0030684288305113</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q8">
-        <v>0.3117150628495759</v>
+        <v>623.3835815456026</v>
       </c>
       <c r="R8">
-        <v>0.3117150628495759</v>
+        <v>5610.452233910424</v>
       </c>
       <c r="S8">
-        <v>0.0002833950708703919</v>
+        <v>0.4616247793967062</v>
       </c>
       <c r="T8">
-        <v>0.0002833950708703919</v>
+        <v>0.4757232639486694</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.557265048993744</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H9">
-        <v>0.557265048993744</v>
+        <v>13.850705</v>
       </c>
       <c r="I9">
-        <v>0.09235836531465817</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J9">
-        <v>0.09235836531465817</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>67.5805052460525</v>
+        <v>0.324361</v>
       </c>
       <c r="N9">
-        <v>67.5805052460525</v>
+        <v>0.648722</v>
       </c>
       <c r="O9">
-        <v>0.3707161493989182</v>
+        <v>0.001559914055329434</v>
       </c>
       <c r="P9">
-        <v>0.3707161493989182</v>
+        <v>0.001040483725282092</v>
       </c>
       <c r="Q9">
-        <v>37.66025356696341</v>
+        <v>1.497542841501666</v>
       </c>
       <c r="R9">
-        <v>37.66025356696341</v>
+        <v>8.98525704901</v>
       </c>
       <c r="S9">
-        <v>0.03423873755422869</v>
+        <v>0.00110895266463599</v>
       </c>
       <c r="T9">
-        <v>0.03423873755422869</v>
+        <v>0.0007618807954441044</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.431383</v>
+      </c>
+      <c r="I10">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J10">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.89089</v>
+      </c>
+      <c r="O10">
+        <v>0.00463428088190967</v>
+      </c>
+      <c r="P10">
+        <v>0.004636691828827675</v>
+      </c>
+      <c r="Q10">
+        <v>0.13856453343</v>
+      </c>
+      <c r="R10">
+        <v>1.24708080087</v>
+      </c>
+      <c r="S10">
+        <v>0.0001026090902462307</v>
+      </c>
+      <c r="T10">
+        <v>0.0001057428749525415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.431383</v>
+      </c>
+      <c r="I11">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J11">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>71.62512099999999</v>
+      </c>
+      <c r="N11">
+        <v>214.875363</v>
+      </c>
+      <c r="O11">
+        <v>0.3444588990740914</v>
+      </c>
+      <c r="P11">
+        <v>0.344638101013349</v>
+      </c>
+      <c r="Q11">
+        <v>10.29928652411433</v>
+      </c>
+      <c r="R11">
+        <v>92.69357871702898</v>
+      </c>
+      <c r="S11">
+        <v>0.007626774285344162</v>
+      </c>
+      <c r="T11">
+        <v>0.00785970363455232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.431383</v>
+      </c>
+      <c r="I12">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J12">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>135.0220616666666</v>
+      </c>
+      <c r="N12">
+        <v>405.066185</v>
+      </c>
+      <c r="O12">
+        <v>0.6493469059886695</v>
+      </c>
+      <c r="P12">
+        <v>0.6496847234325412</v>
+      </c>
+      <c r="Q12">
+        <v>19.41540734265055</v>
+      </c>
+      <c r="R12">
+        <v>174.738666083855</v>
+      </c>
+      <c r="S12">
+        <v>0.01437739683362611</v>
+      </c>
+      <c r="T12">
+        <v>0.01481649697773282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.431383</v>
+      </c>
+      <c r="I13">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J13">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.324361</v>
+      </c>
+      <c r="N13">
+        <v>0.648722</v>
+      </c>
+      <c r="O13">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P13">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q13">
+        <v>0.04664127375433334</v>
+      </c>
+      <c r="R13">
+        <v>0.279847642526</v>
+      </c>
+      <c r="S13">
+        <v>3.453855434280548E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.372893099528609E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.135131</v>
+      </c>
+      <c r="I14">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J14">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.89089</v>
+      </c>
+      <c r="O14">
+        <v>0.00463428088190967</v>
+      </c>
+      <c r="P14">
+        <v>0.004636691828827675</v>
+      </c>
+      <c r="Q14">
+        <v>0.5469231427650001</v>
+      </c>
+      <c r="R14">
+        <v>3.281538856590001</v>
+      </c>
+      <c r="S14">
+        <v>0.0004050046914932699</v>
+      </c>
+      <c r="T14">
+        <v>0.0002782492944500673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.557265048993744</v>
-      </c>
-      <c r="H10">
-        <v>0.557265048993744</v>
-      </c>
-      <c r="I10">
-        <v>0.09235836531465817</v>
-      </c>
-      <c r="J10">
-        <v>0.09235836531465817</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>114.157299768955</v>
-      </c>
-      <c r="N10">
-        <v>114.157299768955</v>
-      </c>
-      <c r="O10">
-        <v>0.6262154217705705</v>
-      </c>
-      <c r="P10">
-        <v>0.6262154217705705</v>
-      </c>
-      <c r="Q10">
-        <v>63.61587324874022</v>
-      </c>
-      <c r="R10">
-        <v>63.61587324874022</v>
-      </c>
-      <c r="S10">
-        <v>0.0578362326895591</v>
-      </c>
-      <c r="T10">
-        <v>0.0578362326895591</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.135131</v>
+      </c>
+      <c r="I15">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J15">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>71.62512099999999</v>
+      </c>
+      <c r="N15">
+        <v>214.875363</v>
+      </c>
+      <c r="O15">
+        <v>0.3444588990740914</v>
+      </c>
+      <c r="P15">
+        <v>0.344638101013349</v>
+      </c>
+      <c r="Q15">
+        <v>40.6519476129255</v>
+      </c>
+      <c r="R15">
+        <v>243.911685677553</v>
+      </c>
+      <c r="S15">
+        <v>0.03010336958560144</v>
+      </c>
+      <c r="T15">
+        <v>0.02068183782484014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.135131</v>
+      </c>
+      <c r="I16">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J16">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>135.0220616666666</v>
+      </c>
+      <c r="N16">
+        <v>405.066185</v>
+      </c>
+      <c r="O16">
+        <v>0.6493469059886695</v>
+      </c>
+      <c r="P16">
+        <v>0.6496847234325412</v>
+      </c>
+      <c r="Q16">
+        <v>76.6338639408725</v>
+      </c>
+      <c r="R16">
+        <v>459.803183645235</v>
+      </c>
+      <c r="S16">
+        <v>0.05674851180442034</v>
+      </c>
+      <c r="T16">
+        <v>0.03898777891300963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.135131</v>
+      </c>
+      <c r="I17">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J17">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.324361</v>
+      </c>
+      <c r="N17">
+        <v>0.648722</v>
+      </c>
+      <c r="O17">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P17">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q17">
+        <v>0.1840961131455</v>
+      </c>
+      <c r="R17">
+        <v>0.7363844525820001</v>
+      </c>
+      <c r="S17">
+        <v>0.0001363258997098975</v>
+      </c>
+      <c r="T17">
+        <v>6.243974651205565E-05</v>
       </c>
     </row>
   </sheetData>
